--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1827,28 +1827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>338.9475122411329</v>
+        <v>399.2104051003741</v>
       </c>
       <c r="AB2" t="n">
-        <v>463.7629395572075</v>
+        <v>546.2172881784188</v>
       </c>
       <c r="AC2" t="n">
-        <v>419.5020555012405</v>
+        <v>494.0870768154485</v>
       </c>
       <c r="AD2" t="n">
-        <v>338947.5122411328</v>
+        <v>399210.4051003741</v>
       </c>
       <c r="AE2" t="n">
-        <v>463762.9395572075</v>
+        <v>546217.2881784188</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.535728106636152e-06</v>
+        <v>3.655668975471529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.98567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>419502.0555012405</v>
+        <v>494087.0768154485</v>
       </c>
     </row>
     <row r="3">
@@ -1933,28 +1933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.4384512721728</v>
+        <v>203.9719224541063</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.833164127386</v>
+        <v>279.0833829077084</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.7073323230246</v>
+        <v>252.4480565390666</v>
       </c>
       <c r="AD3" t="n">
-        <v>169438.4512721728</v>
+        <v>203971.9224541063</v>
       </c>
       <c r="AE3" t="n">
-        <v>231833.164127386</v>
+        <v>279083.3829077084</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.950970443997278e-06</v>
+        <v>5.695973490740775e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.692057291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>209707.3323230246</v>
+        <v>252448.0565390666</v>
       </c>
     </row>
     <row r="4">
@@ -2039,28 +2039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.1598667642831</v>
+        <v>179.0600596592842</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.5600866432393</v>
+        <v>244.9978731980294</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.5599660934971</v>
+        <v>221.6156200367552</v>
       </c>
       <c r="AD4" t="n">
-        <v>153159.8667642831</v>
+        <v>179060.0596592842</v>
       </c>
       <c r="AE4" t="n">
-        <v>209560.0866432393</v>
+        <v>244997.8731980294</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.250208581696342e-06</v>
+        <v>6.127374465238593e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.151692708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>189559.9660934971</v>
+        <v>221615.6200367552</v>
       </c>
     </row>
   </sheetData>
@@ -2336,28 +2336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.4383847432381</v>
+        <v>289.4402511722358</v>
       </c>
       <c r="AB2" t="n">
-        <v>338.5561142166472</v>
+        <v>396.0249208565307</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.2447938424019</v>
+        <v>358.22885823445</v>
       </c>
       <c r="AD2" t="n">
-        <v>247438.3847432382</v>
+        <v>289440.2511722358</v>
       </c>
       <c r="AE2" t="n">
-        <v>338556.1142166472</v>
+        <v>396024.9208565307</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.13546662693106e-06</v>
+        <v>4.590205188855825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.02604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>306244.7938424019</v>
+        <v>358228.85823445</v>
       </c>
     </row>
     <row r="3">
@@ -2442,28 +2442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.0444119723941</v>
+        <v>179.5435139918136</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.824407485271</v>
+        <v>245.6593567442955</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.7534464902508</v>
+        <v>222.2139725217639</v>
       </c>
       <c r="AD3" t="n">
-        <v>146044.4119723941</v>
+        <v>179543.5139918136</v>
       </c>
       <c r="AE3" t="n">
-        <v>199824.407485271</v>
+        <v>245659.3567442955</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.323279477807384e-06</v>
+        <v>6.329118518263117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.272135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>180753.4464902508</v>
+        <v>222213.9725217639</v>
       </c>
     </row>
     <row r="4">
@@ -2548,28 +2548,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.5964015158193</v>
+        <v>180.0955035352387</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.5796639306449</v>
+        <v>246.4146131896694</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.4366223204875</v>
+        <v>222.8971483520006</v>
       </c>
       <c r="AD4" t="n">
-        <v>146596.4015158192</v>
+        <v>180095.5035352387</v>
       </c>
       <c r="AE4" t="n">
-        <v>200579.6639306449</v>
+        <v>246414.6131896694</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.320285316287042e-06</v>
+        <v>6.324735178434558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.278645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>181436.6223204875</v>
+        <v>222897.1483520006</v>
       </c>
     </row>
   </sheetData>
@@ -2845,28 +2845,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.4506626051658</v>
+        <v>174.4345661961042</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.2755251728848</v>
+        <v>238.66906897934</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.54326452487</v>
+        <v>215.890828010163</v>
       </c>
       <c r="AD2" t="n">
-        <v>143450.6626051658</v>
+        <v>174434.5661961042</v>
       </c>
       <c r="AE2" t="n">
-        <v>196275.5251728848</v>
+        <v>238669.06897934</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.216187118246837e-06</v>
+        <v>6.522961888194368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.3203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>177543.26452487</v>
+        <v>215890.828010163</v>
       </c>
     </row>
   </sheetData>
@@ -3142,28 +3142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.4503951826396</v>
+        <v>171.5362572296175</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.8021828060439</v>
+        <v>234.7034747870275</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.5922902716343</v>
+        <v>212.3037045618172</v>
       </c>
       <c r="AD2" t="n">
-        <v>139450.3951826396</v>
+        <v>171536.2572296175</v>
       </c>
       <c r="AE2" t="n">
-        <v>190802.1828060439</v>
+        <v>234703.4747870275</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.289709928407717e-06</v>
+        <v>6.483012741157319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.825520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>172592.2902716344</v>
+        <v>212303.7045618172</v>
       </c>
     </row>
     <row r="3">
@@ -3248,28 +3248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.0379824828291</v>
+        <v>170.123844529807</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.8696574389135</v>
+        <v>232.7709494198971</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.8442024132259</v>
+        <v>210.5556167034087</v>
       </c>
       <c r="AD3" t="n">
-        <v>138037.9824828291</v>
+        <v>170123.844529807</v>
       </c>
       <c r="AE3" t="n">
-        <v>188869.6574389135</v>
+        <v>232770.9494198971</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.337860259775736e-06</v>
+        <v>6.555782046532166e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.737630208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>170844.2024132259</v>
+        <v>210555.6167034087</v>
       </c>
     </row>
   </sheetData>
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.5241703621338</v>
+        <v>182.759506419249</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.690298780873</v>
+        <v>250.059619463083</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.77318956396</v>
+        <v>226.1942803424793</v>
       </c>
       <c r="AD2" t="n">
-        <v>152524.1703621338</v>
+        <v>182759.506419249</v>
       </c>
       <c r="AE2" t="n">
-        <v>208690.298780873</v>
+        <v>250059.619463083</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.987543192917993e-06</v>
+        <v>6.302264127379001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.137369791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>188773.18956396</v>
+        <v>226194.2803424793</v>
       </c>
     </row>
   </sheetData>
@@ -3842,28 +3842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.0271587496745</v>
+        <v>308.3128206658556</v>
       </c>
       <c r="AB2" t="n">
-        <v>363.990094891244</v>
+        <v>421.8472030367054</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.2513910981296</v>
+        <v>381.5866980451494</v>
       </c>
       <c r="AD2" t="n">
-        <v>266027.1587496745</v>
+        <v>308312.8206658555</v>
       </c>
       <c r="AE2" t="n">
-        <v>363990.094891244</v>
+        <v>421847.2030367054</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.970328165648533e-06</v>
+        <v>4.330400706257677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.48828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>329251.3910981296</v>
+        <v>381586.6980451494</v>
       </c>
     </row>
     <row r="3">
@@ -3948,28 +3948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.9741731817553</v>
+        <v>182.700311590924</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.8330360238593</v>
+        <v>249.9786264874772</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.379497147263</v>
+        <v>226.1210172227909</v>
       </c>
       <c r="AD3" t="n">
-        <v>148974.1731817553</v>
+        <v>182700.311590924</v>
       </c>
       <c r="AE3" t="n">
-        <v>203833.0360238593</v>
+        <v>249978.6264874772</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.278987829245683e-06</v>
+        <v>6.238277686663548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.281901041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>184379.497147263</v>
+        <v>226121.0172227909</v>
       </c>
     </row>
     <row r="4">
@@ -4054,28 +4054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.1837068983085</v>
+        <v>173.6063443641802</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.7514851819368</v>
+        <v>237.5358593303337</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.4011679997271</v>
+        <v>214.8657702995878</v>
       </c>
       <c r="AD4" t="n">
-        <v>148183.7068983085</v>
+        <v>173606.3443641802</v>
       </c>
       <c r="AE4" t="n">
-        <v>202751.4851819368</v>
+        <v>237535.8593303337</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.305406061190739e-06</v>
+        <v>6.27679246479345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.236328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>183401.1679997271</v>
+        <v>214865.7702995878</v>
       </c>
     </row>
   </sheetData>
@@ -4351,28 +4351,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.4141816121481</v>
+        <v>192.5909915173665</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.6445396714386</v>
+        <v>263.5114911088318</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.3500432537431</v>
+        <v>238.3623242381825</v>
       </c>
       <c r="AD2" t="n">
-        <v>155414.1816121481</v>
+        <v>192590.9915173666</v>
       </c>
       <c r="AE2" t="n">
-        <v>212644.5396714386</v>
+        <v>263511.4911088318</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.778134354516657e-06</v>
+        <v>6.053458710922626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>192350.0432537431</v>
+        <v>238362.3242381825</v>
       </c>
     </row>
   </sheetData>
@@ -4648,28 +4648,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.0358062091598</v>
+        <v>224.1165294644522</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.4376650251252</v>
+        <v>306.6461229365885</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.5362457666705</v>
+        <v>277.3802473441478</v>
       </c>
       <c r="AD2" t="n">
-        <v>183035.8062091598</v>
+        <v>224116.5294644522</v>
       </c>
       <c r="AE2" t="n">
-        <v>250437.6650251252</v>
+        <v>306646.1229365885</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.694433506215049e-06</v>
+        <v>5.485654458950599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.76953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>226536.2457666705</v>
+        <v>277380.2473441478</v>
       </c>
     </row>
     <row r="3">
@@ -4754,28 +4754,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.8062142940557</v>
+        <v>174.5684733813546</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.0255184456858</v>
+        <v>238.8522866977677</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.5079952818099</v>
+        <v>216.0565596866917</v>
       </c>
       <c r="AD3" t="n">
-        <v>141806.2142940557</v>
+        <v>174568.4733813546</v>
       </c>
       <c r="AE3" t="n">
-        <v>194025.5184456858</v>
+        <v>238852.2866977677</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.349330931249425e-06</v>
+        <v>6.458074445330502e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>175507.9952818099</v>
+        <v>216056.5596866917</v>
       </c>
     </row>
   </sheetData>
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.7166849524369</v>
+        <v>263.5092155606732</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.3625498015833</v>
+        <v>360.5449339362387</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.4100538206226</v>
+        <v>326.1350314693562</v>
       </c>
       <c r="AD2" t="n">
-        <v>221716.6849524369</v>
+        <v>263509.2155606732</v>
       </c>
       <c r="AE2" t="n">
-        <v>303362.5498015833</v>
+        <v>360544.9339362388</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.312673504927453e-06</v>
+        <v>4.871095841173719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.580078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>274410.0538206226</v>
+        <v>326135.0314693563</v>
       </c>
     </row>
     <row r="3">
@@ -5157,28 +5157,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.2387433239502</v>
+        <v>178.5021756099443</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.7220560968783</v>
+        <v>244.2345516296156</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.756301971206</v>
+        <v>220.9251488075021</v>
       </c>
       <c r="AD3" t="n">
-        <v>145238.7433239502</v>
+        <v>178502.1756099443</v>
       </c>
       <c r="AE3" t="n">
-        <v>198722.0560968783</v>
+        <v>244234.5516296156</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.315689615161116e-06</v>
+        <v>6.345973336925126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.353515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>179756.301971206</v>
+        <v>220925.1488075021</v>
       </c>
     </row>
   </sheetData>
@@ -5454,28 +5454,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>315.2417675466128</v>
+        <v>366.5631465959956</v>
       </c>
       <c r="AB2" t="n">
-        <v>431.3276938425197</v>
+        <v>501.547868797334</v>
       </c>
       <c r="AC2" t="n">
-        <v>390.1623841144093</v>
+        <v>453.6808441261707</v>
       </c>
       <c r="AD2" t="n">
-        <v>315241.7675466128</v>
+        <v>366563.1465959956</v>
       </c>
       <c r="AE2" t="n">
-        <v>431327.6938425198</v>
+        <v>501547.868797334</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.675521562461197e-06</v>
+        <v>3.870871037559428e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.45182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>390162.3841144093</v>
+        <v>453680.8441261707</v>
       </c>
     </row>
     <row r="3">
@@ -5560,28 +5560,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.4118179455654</v>
+        <v>196.7397987788817</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.2190144167425</v>
+        <v>269.1880722364925</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.010743567218</v>
+        <v>243.4971404301527</v>
       </c>
       <c r="AD3" t="n">
-        <v>162411.8179455654</v>
+        <v>196739.7987788817</v>
       </c>
       <c r="AE3" t="n">
-        <v>222219.0144167425</v>
+        <v>269188.0722364925</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.056338768990821e-06</v>
+        <v>5.868599408697067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.552083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>201010.743567218</v>
+        <v>243497.1404301527</v>
       </c>
     </row>
     <row r="4">
@@ -5666,28 +5666,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.846321825972</v>
+        <v>177.5923969595102</v>
       </c>
       <c r="AB4" t="n">
-        <v>207.7628365091301</v>
+        <v>242.9897523434909</v>
       </c>
       <c r="AC4" t="n">
-        <v>187.9342429897304</v>
+        <v>219.799151418158</v>
       </c>
       <c r="AD4" t="n">
-        <v>151846.321825972</v>
+        <v>177592.3969595102</v>
       </c>
       <c r="AE4" t="n">
-        <v>207762.8365091301</v>
+        <v>242989.752343491</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.259245114225136e-06</v>
+        <v>6.16215873041004e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.194010416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>187934.2429897304</v>
+        <v>219799.151418158</v>
       </c>
     </row>
   </sheetData>
@@ -5963,28 +5963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.4901044570815</v>
+        <v>187.7984689139324</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.8024677222703</v>
+        <v>256.9541502516412</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.5427234344565</v>
+        <v>232.4308067891143</v>
       </c>
       <c r="AD2" t="n">
-        <v>147490.1044570815</v>
+        <v>187798.4689139324</v>
       </c>
       <c r="AE2" t="n">
-        <v>201802.4677222703</v>
+        <v>256954.1502516412</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.145814193034063e-06</v>
+        <v>6.225705386326401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.994791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>182542.7234344565</v>
+        <v>232430.8067891143</v>
       </c>
     </row>
     <row r="3">
@@ -6069,28 +6069,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.5237074494177</v>
+        <v>171.906944382213</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.9024918837585</v>
+        <v>235.2106653027714</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.6830259917566</v>
+        <v>212.7624895265849</v>
       </c>
       <c r="AD3" t="n">
-        <v>139523.7074494177</v>
+        <v>171906.944382213</v>
       </c>
       <c r="AE3" t="n">
-        <v>190902.4918837585</v>
+        <v>235210.6653027714</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.337634079074392e-06</v>
+        <v>6.513758357859074e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.639973958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>172683.0259917566</v>
+        <v>212762.4895265849</v>
       </c>
     </row>
   </sheetData>
@@ -6366,28 +6366,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.1699815218586</v>
+        <v>175.5174981441593</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.2597290488143</v>
+        <v>240.1507842462539</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.4335373642199</v>
+        <v>217.2311304516036</v>
       </c>
       <c r="AD2" t="n">
-        <v>144169.9815218586</v>
+        <v>175517.4981441593</v>
       </c>
       <c r="AE2" t="n">
-        <v>197259.7290488143</v>
+        <v>240150.784246254</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.267868516519548e-06</v>
+        <v>6.545829461866535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.089192708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>178433.5373642199</v>
+        <v>217231.1304516036</v>
       </c>
     </row>
   </sheetData>
@@ -10540,28 +10540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.8983068918955</v>
+        <v>182.1542664877804</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.8880118346602</v>
+        <v>249.2315034875467</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.0972963192762</v>
+        <v>225.4451985933798</v>
       </c>
       <c r="AD2" t="n">
-        <v>143898.3068918955</v>
+        <v>182154.2664877804</v>
       </c>
       <c r="AE2" t="n">
-        <v>196888.0118346602</v>
+        <v>249231.5034875468</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.120337237973921e-06</v>
+        <v>6.437945659176039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.668619791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>178097.2963192762</v>
+        <v>225445.1985933798</v>
       </c>
     </row>
   </sheetData>
@@ -10837,28 +10837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.6383199326607</v>
+        <v>213.0971902370347</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.6843420644483</v>
+        <v>291.5689768667069</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.6183276639919</v>
+        <v>263.7420429342634</v>
       </c>
       <c r="AD2" t="n">
-        <v>176638.3199326607</v>
+        <v>213097.1902370347</v>
       </c>
       <c r="AE2" t="n">
-        <v>241684.3420644483</v>
+        <v>291568.9768667069</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.438541978061005e-06</v>
+        <v>5.603709794293439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>218618.3276639919</v>
+        <v>263742.0429342634</v>
       </c>
     </row>
   </sheetData>
@@ -11134,28 +11134,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.5767986343905</v>
+        <v>239.7656706998258</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.6474894165979</v>
+        <v>328.057968366202</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.6720097250037</v>
+        <v>296.7485762976796</v>
       </c>
       <c r="AD2" t="n">
-        <v>206576.7986343905</v>
+        <v>239765.6706998258</v>
       </c>
       <c r="AE2" t="n">
-        <v>282647.4894165979</v>
+        <v>328057.968366202</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.489322442247681e-06</v>
+        <v>5.155057997824656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.186197916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>255672.0097250037</v>
+        <v>296748.5762976796</v>
       </c>
     </row>
     <row r="3">
@@ -11240,28 +11240,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.9350030297561</v>
+        <v>175.9531933860482</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.5699769925147</v>
+        <v>240.7469216977236</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.9050528725911</v>
+        <v>217.7703733813893</v>
       </c>
       <c r="AD3" t="n">
-        <v>142935.0030297561</v>
+        <v>175953.1933860483</v>
       </c>
       <c r="AE3" t="n">
-        <v>195569.9769925147</v>
+        <v>240746.9216977236</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.350697527686127e-06</v>
+        <v>6.427637014757241e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.366536458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>176905.0528725911</v>
+        <v>217770.3733813893</v>
       </c>
     </row>
   </sheetData>
@@ -11537,28 +11537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.6486831727146</v>
+        <v>336.7372393623829</v>
       </c>
       <c r="AB2" t="n">
-        <v>390.8371302474112</v>
+        <v>460.7387466941443</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.536183079955</v>
+        <v>416.7664873605467</v>
       </c>
       <c r="AD2" t="n">
-        <v>285648.6831727147</v>
+        <v>336737.2393623829</v>
       </c>
       <c r="AE2" t="n">
-        <v>390837.1302474112</v>
+        <v>460738.7466941443</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.817628714025275e-06</v>
+        <v>4.091673116053566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.96354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>353536.183079955</v>
+        <v>416766.4873605467</v>
       </c>
     </row>
     <row r="3">
@@ -11643,28 +11643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.4039091328395</v>
+        <v>187.3492482950734</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.8939961782874</v>
+        <v>256.3395067827037</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.8620077711653</v>
+        <v>231.8748240301945</v>
       </c>
       <c r="AD3" t="n">
-        <v>153403.9091328395</v>
+        <v>187349.2482950734</v>
       </c>
       <c r="AE3" t="n">
-        <v>209893.9961782874</v>
+        <v>256339.5067827037</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.209361932397048e-06</v>
+        <v>6.112704973794426e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.337239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>189862.0077711653</v>
+        <v>231874.8240301945</v>
       </c>
     </row>
     <row r="4">
@@ -11749,28 +11749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.0480037471682</v>
+        <v>175.6350417778388</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.3022983775176</v>
+        <v>240.3116126315133</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.7085351640112</v>
+        <v>217.3766096014979</v>
       </c>
       <c r="AD4" t="n">
-        <v>150048.0037471682</v>
+        <v>175635.0417778388</v>
       </c>
       <c r="AE4" t="n">
-        <v>205302.2983775176</v>
+        <v>240311.6126315133</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.280818029044664e-06</v>
+        <v>6.216471303323872e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.216796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>185708.5351640112</v>
+        <v>217376.6096014979</v>
       </c>
     </row>
   </sheetData>
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.8520391280479</v>
+        <v>262.606669180996</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.6558414858878</v>
+        <v>359.3100301620285</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.7750032810136</v>
+        <v>325.0179851781583</v>
       </c>
       <c r="AD2" t="n">
-        <v>205852.0391280479</v>
+        <v>262606.669180996</v>
       </c>
       <c r="AE2" t="n">
-        <v>281655.8414858878</v>
+        <v>359310.0301620285</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.858029583332349e-06</v>
+        <v>4.764165036751019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.88671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>254775.0032810136</v>
+        <v>325017.9851781583</v>
       </c>
     </row>
   </sheetData>
@@ -12343,28 +12343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.9568242676737</v>
+        <v>168.7269881709368</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.3903690716045</v>
+        <v>230.8597089247386</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.5060952514982</v>
+        <v>208.8267823186646</v>
       </c>
       <c r="AD2" t="n">
-        <v>136956.8242676737</v>
+        <v>168726.9881709368</v>
       </c>
       <c r="AE2" t="n">
-        <v>187390.3690716045</v>
+        <v>230859.7089247386</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.30484254884892e-06</v>
+        <v>6.551568380563106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.903645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>169506.0952514982</v>
+        <v>208826.7823186646</v>
       </c>
     </row>
     <row r="3">
@@ -12449,28 +12449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.5207432022194</v>
+        <v>169.2909071054825</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.1619478361971</v>
+        <v>231.6312876893312</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.2040356217158</v>
+        <v>209.5247226888823</v>
       </c>
       <c r="AD3" t="n">
-        <v>137520.7432022194</v>
+        <v>169290.9071054825</v>
       </c>
       <c r="AE3" t="n">
-        <v>188161.9478361971</v>
+        <v>231631.2876893312</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.303901942319675e-06</v>
+        <v>6.550136865257812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.903645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>170204.0356217158</v>
+        <v>209524.7226888823</v>
       </c>
     </row>
   </sheetData>
@@ -12746,28 +12746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.0646736983032</v>
+        <v>201.6443069644069</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.3217451609151</v>
+        <v>275.8986367075552</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.2447224649325</v>
+        <v>249.5672580464357</v>
       </c>
       <c r="AD2" t="n">
-        <v>169064.6736983032</v>
+        <v>201644.3069644069</v>
       </c>
       <c r="AE2" t="n">
-        <v>231321.7451609151</v>
+        <v>275898.6367075552</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.910190237507398e-06</v>
+        <v>5.837564821232687e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.375651041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>209244.7224649325</v>
+        <v>249567.2580464357</v>
       </c>
     </row>
     <row r="3">
@@ -12852,28 +12852,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.706096359614</v>
+        <v>173.3709809717382</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.5202885540054</v>
+        <v>237.2138247532947</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.1464224183875</v>
+        <v>214.574470250603</v>
       </c>
       <c r="AD3" t="n">
-        <v>140706.096359614</v>
+        <v>173370.9809717382</v>
       </c>
       <c r="AE3" t="n">
-        <v>192520.2885540054</v>
+        <v>237213.8247532948</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.344175067522051e-06</v>
+        <v>6.485465415004601e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.5390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>174146.4224183875</v>
+        <v>214574.470250603</v>
       </c>
     </row>
   </sheetData>
